--- a/September/Others/House Rent Form.xlsx
+++ b/September/Others/House Rent Form.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>RENT RECEIPT</t>
   </si>
@@ -120,6 +120,15 @@
   <si>
     <t>Payment in word :</t>
   </si>
+  <si>
+    <t xml:space="preserve">Bagha , Rajshahi . </t>
+  </si>
+  <si>
+    <t>01781-339492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagha , Rajshahi. </t>
+  </si>
 </sst>
 </file>
 
@@ -218,12 +227,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -340,11 +349,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -361,32 +450,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,20 +495,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -427,19 +513,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,7 +777,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -889,7 +982,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1989,7 +2082,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2435,7 +2528,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2506,7 +2599,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2580,7 +2673,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2651,7 +2744,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2688,7 +2781,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="361951" y="8275073"/>
+          <a:off x="361951" y="8265548"/>
           <a:ext cx="4297607" cy="164077"/>
           <a:chOff x="253" y="244"/>
           <a:chExt cx="611" cy="266"/>
@@ -2885,7 +2978,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3088,7 +3181,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4186,7 +4279,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4630,7 +4723,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4701,7 +4794,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4775,7 +4868,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4846,7 +4939,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4883,7 +4976,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="361951" y="8275073"/>
+          <a:off x="361951" y="8265548"/>
           <a:ext cx="4297607" cy="164077"/>
           <a:chOff x="253" y="244"/>
           <a:chExt cx="611" cy="266"/>
@@ -5080,7 +5173,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5285,7 +5378,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6385,7 +6478,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6831,7 +6924,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6902,7 +6995,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6976,7 +7069,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7047,7 +7140,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7073,7 +7166,7 @@
       <xdr:col>37</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7510,7 +7603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7520,8 +7613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7559,56 +7652,56 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="27"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="18.75">
       <c r="A4" s="6"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="28"/>
+      <c r="M4" s="32"/>
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14">
@@ -7629,86 +7722,86 @@
     </row>
     <row r="6" spans="1:14" ht="25.35" customHeight="1">
       <c r="A6" s="9"/>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="25.35" customHeight="1">
       <c r="A7" s="9"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="40" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="44" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="41">
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22">
         <v>4150</v>
       </c>
-      <c r="M7" s="41"/>
+      <c r="M7" s="22"/>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="25.35" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="42" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="25.35" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="43" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
@@ -7729,42 +7822,44 @@
     </row>
     <row r="11" spans="1:14" ht="21.6" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="21.6" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="44"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
+      <c r="K12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="21.6" customHeight="1">
@@ -7780,9 +7875,11 @@
       <c r="J13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="K13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14">
@@ -7802,58 +7899,58 @@
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="22"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="23"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="41"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="22"/>
-      <c r="B16" s="45" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="45" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="46" t="s">
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="46"/>
-      <c r="N16" s="23"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="43"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="25"/>
+    <row r="17" spans="1:14">
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="46"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="20" spans="1:14">
@@ -7891,56 +7988,56 @@
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="26" t="s">
+      <c r="L23" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="27"/>
+      <c r="M23" s="30"/>
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
       <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" ht="18.75">
       <c r="A25" s="6"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="28" t="s">
+      <c r="L25" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="28"/>
+      <c r="M25" s="32"/>
       <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:14">
@@ -7961,86 +8058,86 @@
     </row>
     <row r="27" spans="1:14" ht="21.6" customHeight="1">
       <c r="A27" s="9"/>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
       <c r="H27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="8"/>
     </row>
     <row r="28" spans="1:14" ht="21.6" customHeight="1">
       <c r="A28" s="9"/>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="40" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="44" t="s">
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="41">
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22">
         <v>4150</v>
       </c>
-      <c r="M28" s="41"/>
+      <c r="M28" s="22"/>
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14" ht="21.6" customHeight="1">
       <c r="A29" s="9"/>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="30" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" ht="21.6" customHeight="1">
       <c r="A30" s="9"/>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14">
@@ -8061,42 +8158,44 @@
     </row>
     <row r="32" spans="1:14" ht="21.6" customHeight="1">
       <c r="A32" s="9"/>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="38" t="s">
+      <c r="J32" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K32" s="38"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" ht="21.6" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="48" t="s">
+      <c r="G33" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
+      <c r="K33" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" ht="21.6" customHeight="1">
@@ -8112,9 +8211,11 @@
       <c r="J34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
+      <c r="K34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
       <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14">
@@ -8134,79 +8235,86 @@
       <c r="N35" s="12"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="16"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="48"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="14"/>
-      <c r="B37" s="45" t="s">
+      <c r="A37" s="49"/>
+      <c r="B37" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="45" t="s">
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="46" t="s">
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="M37" s="46"/>
-      <c r="N37" s="16"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="50"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="21"/>
+    <row r="38" spans="1:14">
+      <c r="A38" s="51"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="52"/>
     </row>
     <row r="39" spans="1:14">
       <c r="N39" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:M30"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="I7:K7"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:H28"/>
     <mergeCell ref="I28:K28"/>
@@ -8221,28 +8329,21 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:M30"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G33:I33"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
